--- a/participants/participant_08/participant_08_task_orders.xlsx
+++ b/participants/participant_08/participant_08_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730271768737" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730292767918" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730292777672" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730293407602" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1649873029417762" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911377317884" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650291139894714" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502911398967123" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911399687996" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650291140039658" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1649873027138844.csv</t>
+          <t>go_stims-16502911376807868.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730271598723.csv</t>
+          <t>GNG_stims-16502911376997888.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1649873027160875.csv</t>
+          <t>go_stims-1650291137700786.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873027175878.csv</t>
+          <t>GNG_stims-16502911377307863.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498730280404623.csv</t>
+          <t>OB-1650291138372812.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_7-1649873027290698.csv</t>
+          <t>TB-16502911387701876.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16498730288117683.csv</t>
+          <t>OB-16502911387418919.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_6-16498730274712.csv</t>
+          <t>TB-16502911393309903.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-16498730274995997.csv</t>
+          <t>TB-1650291139870063.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1649873028126706.csv</t>
+          <t>ZB-match_6-16502911378957844.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498730280661435.csv</t>
+          <t>OB-16502911382047856.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16498730292617595.csv</t>
+          <t>ZB-match_6-16502911377437847.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730285789564.csv</t>
+          <t>ZB-match_1-16502911379927857.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730292927606.csv</t>
+          <t>MM_stims-16502911399205165.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730292787588.csv</t>
+          <t>ZM_stims-16502911398977923.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730293237607.csv</t>
+          <t>MM_stims-1650291139951909.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-164987302929376.csv</t>
+          <t>ZM_stims-16502911399215195.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1649873029339759.csv</t>
+          <t>MM_stims-16502911399680593.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730293257616.csv</t>
+          <t>ZM_stims-16502911399529433.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873029343759.csv</t>
+          <t>SAT_stims-1650291139971799.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730293707612.csv</t>
+          <t>vSAT_stims-16502911399998226.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873029402759.csv</t>
+          <t>SAT_stims-16502911399838853.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730293877633.csv</t>
+          <t>vSAT_stims-16502911400245311.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_08/participant_08_task_orders.xlsx
+++ b/participants/participant_08/participant_08_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911377317884" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650291139894714" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502911398967123" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911399687996" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650291140039658" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504777913683755" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504777924905894" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477792491554" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504777925385575" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504777926015878" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911376807868.csv</t>
+          <t>go_stims-16504777913293757.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911376997888.csv</t>
+          <t>GNG_stims-16504777913514068.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291137700786.csv</t>
+          <t>go_stims-1650477791353376.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911377307863.csv</t>
+          <t>GNG_stims-16504777913674114.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650291138372812.csv</t>
+          <t>OB-16504777918203743.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16502911387701876.csv</t>
+          <t>TB-16504777920044112.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502911387418919.csv</t>
+          <t>OB-16504777919184086.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502911393309903.csv</t>
+          <t>TB-1650477792465374.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1650291139870063.csv</t>
+          <t>ZB-match_4-1650477791659413.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911378957844.csv</t>
+          <t>TB-16504777920994098.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16502911382047856.csv</t>
+          <t>ZB-match_5-16504777915254085.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911377437847.csv</t>
+          <t>OB-16504777917573743.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16502911379927857.csv</t>
+          <t>ZB-match_1-16504777915543756.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911399205165.csv</t>
+          <t>MM_stims-16504777925055878.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911398977923.csv</t>
+          <t>ZM_stims-16504777924935534.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291139951909.csv</t>
+          <t>MM_stims-16504777925215871.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911399215195.csv</t>
+          <t>ZM_stims-1650477792506557.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502911399680593.csv</t>
+          <t>MM_stims-16504777925375528.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911399529433.csv</t>
+          <t>ZM_stims-16504777925225546.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291139971799.csv</t>
+          <t>SAT_stims-16504777925405579.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911399998226.csv</t>
+          <t>SAT_stims-16504777925535905.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911399838853.csv</t>
+          <t>vSAT_stims-1650477792585591.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911400245311.csv</t>
+          <t>vSAT_stims-1650477792569587.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_08/participant_08_task_orders.xlsx
+++ b/participants/participant_08/participant_08_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504777913683755" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504777924905894" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477792491554" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504777925385575" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504777926015878" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509960800968807" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996081161948" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996081161948" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509960812099452" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509960812739124" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504777913293757.csv</t>
+          <t>go_stims-16509960800648441.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777913514068.csv</t>
+          <t>GNG_stims-16509960800808794.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650477791353376.csv</t>
+          <t>go_stims-16509960800808794.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504777913674114.csv</t>
+          <t>GNG_stims-16509960800968807.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504777918203743.csv</t>
+          <t>OB-16509960808819118.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16504777920044112.csv</t>
+          <t>ZB-match_3-16509960803859088.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16504777919184086.csv</t>
+          <t>ZB-match_7-16509960802328494.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-1650477792465374.csv</t>
+          <t>TB-16509960809139476.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_4-1650477791659413.csv</t>
+          <t>OB-16509960808099453.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504777920994098.csv</t>
+          <t>TB-16509960811459513.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_5-16504777915254085.csv</t>
+          <t>ZB-match_2-16509960803059454.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16504777917573743.csv</t>
+          <t>TB-16509960809699488.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504777915543756.csv</t>
+          <t>OB-16509960808419454.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504777925055878.csv</t>
+          <t>MM_stims-16509960811779563.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777924935534.csv</t>
+          <t>ZM_stims-1650996081161948.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504777925215871.csv</t>
+          <t>MM_stims-16509960811939442.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477792506557.csv</t>
+          <t>ZM_stims-16509960811779563.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504777925375528.csv</t>
+          <t>MM_stims-16509960812099452.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504777925225546.csv</t>
+          <t>ZM_stims-16509960811939442.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777925405579.csv</t>
+          <t>vSAT_stims-16509960812579472.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504777925535905.csv</t>
+          <t>SAT_stims-1650996081225915.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477792585591.csv</t>
+          <t>SAT_stims-16509960812099452.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477792569587.csv</t>
+          <t>vSAT_stims-16509960812419171.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_08/participant_08_task_orders.xlsx
+++ b/participants/participant_08/participant_08_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509960800968807" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996081161948" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996081161948" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509960812099452" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509960812739124" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511686668656907" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511686691399014" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511686691408656" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511686691887734" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1651168669251439" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509960800648441.csv</t>
+          <t>go_stims-16511686668273914.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960800808794.csv</t>
+          <t>GNG_stims-16511686668489404.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509960800808794.csv</t>
+          <t>go_stims-16511686668509097.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509960800968807.csv</t>
+          <t>GNG_stims-16511686668647127.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509960808819118.csv</t>
+          <t>ZB-match_4-16511686673482928.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509960803859088.csv</t>
+          <t>TB-165116866912106.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_7-16509960802328494.csv</t>
+          <t>ZB-match_8-16511686671302247.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509960809139476.csv</t>
+          <t>OB-16511686683486407.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16509960808099453.csv</t>
+          <t>ZB-match_5-16511686677828705.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509960811459513.csv</t>
+          <t>OB-16511686679520063.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509960803059454.csv</t>
+          <t>TB-16511686688433487.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16509960809699488.csv</t>
+          <t>TB-16511686685074015.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509960808419454.csv</t>
+          <t>OB-16511686682732773.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509960811779563.csv</t>
+          <t>MM_stims-16511686691557717.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996081161948.csv</t>
+          <t>ZM_stims-16511686691428661.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509960811939442.csv</t>
+          <t>MM_stims-16511686691720688.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960811779563.csv</t>
+          <t>ZM_stims-16511686691557717.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509960812099452.csv</t>
+          <t>MM_stims-16511686691877701.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509960811939442.csv</t>
+          <t>ZM_stims-16511686691720688.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960812579472.csv</t>
+          <t>vSAT_stims-16511686692189581.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650996081225915.csv</t>
+          <t>SAT_stims-16511686692044313.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509960812099452.csv</t>
+          <t>vSAT_stims-1651168669236137.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509960812419171.csv</t>
+          <t>SAT_stims-16511686691918683.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_08/participant_08_task_orders.xlsx
+++ b/participants/participant_08/participant_08_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511686668656907" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511686691399014" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511686691408656" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511686691887734" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1651168669251439" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555013240163" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555033068933" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555033138947" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651255503372893" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555034508934" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511686668273914.csv</t>
+          <t>go_stims-16512555012960193.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686668489404.csv</t>
+          <t>GNG_stims-1651255501307019.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511686668509097.csv</t>
+          <t>go_stims-16512555013090208.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511686668647127.csv</t>
+          <t>GNG_stims-16512555013230505.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_4-16511686673482928.csv</t>
+          <t>ZB-match_1-1651255501525297.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-165116866912106.csv</t>
+          <t>OB-16512555017833283.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_8-16511686671302247.csv</t>
+          <t>TB-16512555022123375.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511686683486407.csv</t>
+          <t>OB-16512555016763012.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-16511686677828705.csv</t>
+          <t>TB-16512555032944932.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511686679520063.csv</t>
+          <t>TB-16512555031964931.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16511686688433487.csv</t>
+          <t>ZB-match_8-16512555014763405.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511686685074015.csv</t>
+          <t>ZB-match_3-16512555014199767.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16511686682732773.csv</t>
+          <t>OB-16512555016512978.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511686691557717.csv</t>
+          <t>MM_stims-16512555033388927.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686691428661.csv</t>
+          <t>ZM_stims-16512555033158956.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511686691720688.csv</t>
+          <t>MM_stims-16512555033548956.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686691557717.csv</t>
+          <t>ZM_stims-1651255503339894.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511686691877701.csv</t>
+          <t>MM_stims-16512555033708935.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511686691720688.csv</t>
+          <t>ZM_stims-16512555033558972.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511686692189581.csv</t>
+          <t>SAT_stims-16512555034038935.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686692044313.csv</t>
+          <t>vSAT_stims-165125550341995.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168669236137.csv</t>
+          <t>SAT_stims-16512555033778942.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511686691918683.csv</t>
+          <t>vSAT_stims-16512555034348927.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_08/participant_08_task_orders.xlsx
+++ b/participants/participant_08/participant_08_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555013240163" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555033068933" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555033138947" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651255503372893" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555034508934" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NB_TO-16515889304667995" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-1651588930515023" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-1651588930595209" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515889305982409" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-16515889306453595" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555012960193.csv</t>
+          <t>ZB-match_3-16515889292623913.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255501307019.csv</t>
+          <t>OB-16515889294041233.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555013090208.csv</t>
+          <t>OB-16515889296314902.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555013230505.csv</t>
+          <t>ZB-match_9-16515889287934875.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ZB-match_4-16515889293092864.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TB-1651588929938002.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OB-16515889295210896.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TB-16515889304361045.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TB-16515889300218463.csv</t>
         </is>
       </c>
     </row>
@@ -495,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +566,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_1-1651255501525297.csv</t>
+          <t>MM_stims-16515889304826152.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +576,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555017833283.csv</t>
+          <t>ZM_stims-16515889304707072.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +586,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16512555022123375.csv</t>
+          <t>MM_stims-16515889304980178.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16512555016763012.csv</t>
+          <t>ZM_stims-16515889304836328.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16512555032944932.csv</t>
+          <t>MM_stims-16515889305139832.csv</t>
         </is>
       </c>
     </row>
@@ -566,37 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16512555031964931.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ZB-match_8-16512555014763405.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ZB-match_3-16512555014199767.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OB-16512555016512978.csv</t>
+          <t>ZM_stims-16515889304990134.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SAT_stims-1651588930522113.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889305798962.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889305625527.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515889305471237.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,92 +729,6 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555033388927.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555033158956.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555033548956.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255503339894.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555033708935.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555033558972.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555034038935.csv</t>
+          <t>go_stims-1651588930601185.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-165125550341995.csv</t>
+          <t>GNG_stims-16515889306280458.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555033778942.csv</t>
+          <t>go_stims-16515889306300511.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555034348927.csv</t>
+          <t>GNG_stims-16515889306433635.csv</t>
         </is>
       </c>
     </row>
